--- a/develop/unity/prj/AuditionMemory/RawData/Table/sound.xlsx
+++ b/develop/unity/prj/AuditionMemory/RawData/Table/sound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\AuditionMemory\RawData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6284727-B561-4C5B-8D78-EB99D2328091}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36184A68-25EF-4EE5-ADDB-230A1FCBEF4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
+    <workbookView xWindow="516" yWindow="480" windowWidth="22104" windowHeight="11952" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -92,15 +92,6 @@
   </si>
   <si>
     <t>sound_0012</t>
-  </si>
-  <si>
-    <t>sound_0013</t>
-  </si>
-  <si>
-    <t>sound_0014</t>
-  </si>
-  <si>
-    <t>sound_0015</t>
   </si>
   <si>
     <t>ファイル名</t>
@@ -110,9 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dog1.mp3</t>
-  </si>
-  <si>
     <t>犬の鳴き声</t>
     <rPh sb="0" eb="1">
       <t>イヌ</t>
@@ -138,9 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sheep-cry1.mp3</t>
-  </si>
-  <si>
     <t>#site</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,68 +159,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>horornis-diphone-twitter1.mp3</t>
-  </si>
-  <si>
     <t>ウグイス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>corvus-corone-cry1.mp3</t>
-  </si>
-  <si>
     <t>カラス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chicken-cry1.mp3</t>
-  </si>
-  <si>
     <t>ニワトリ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cuculus-canorus-cry1.mp3</t>
-  </si>
-  <si>
     <t>カッコウ</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sound_0016</t>
-  </si>
-  <si>
-    <t>sound_0017</t>
-  </si>
-  <si>
-    <t>sound_0018</t>
-  </si>
-  <si>
-    <t>sound_0019</t>
-  </si>
-  <si>
-    <t>sound_0020</t>
-  </si>
-  <si>
-    <t>sound_0021</t>
-  </si>
-  <si>
-    <t>sound_0022</t>
-  </si>
-  <si>
-    <t>sound_0023</t>
-  </si>
-  <si>
-    <t>sound_0024</t>
-  </si>
-  <si>
-    <t>sound_0025</t>
-  </si>
-  <si>
-    <t>sound_0026</t>
-  </si>
-  <si>
-    <t>elephant1.mp3</t>
   </si>
   <si>
     <t>象</t>
@@ -245,9 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>catvoice.mp3</t>
-  </si>
-  <si>
     <t>猫</t>
     <rPh sb="0" eb="1">
       <t>ネコ</t>
@@ -262,21 +196,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鳥・フクロウ02.mp3</t>
-  </si>
-  <si>
     <t>フクロウ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鳥・トンビ05.mp3</t>
-  </si>
-  <si>
     <t>トンビ</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鳥・タカ03.mp3</t>
   </si>
   <si>
     <t>鷹</t>
@@ -305,9 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>holstein-cow-mooing-1.mp3</t>
-  </si>
-  <si>
     <t>牛</t>
     <rPh sb="0" eb="1">
       <t>ウシ</t>
@@ -331,6 +253,112 @@
     <rPh sb="11" eb="13">
       <t>フヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジン内名</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>horornis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chicken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cuculus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elephant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tobi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eagle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dog1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheep-cry1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>horornis-diphone-twitter1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>corvus-corone-cry1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chicken-cry1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cuculus-canorus-cry1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elephant1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catvoice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥・フクロウ02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥・トンビ05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥・タカ03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>holstein-cow-mooing-1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -695,29 +723,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -741,12 +769,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -754,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -771,298 +802,211 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="str">
-        <f>LEFT(D8,LEN(D8)-4)</f>
-        <v>dog1</v>
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="str">
-        <f>LEFT(D9,LEN(D9)-4)</f>
-        <v>sheep-cry1</v>
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="str">
-        <f>LEFT(D10,LEN(D10)-4)</f>
-        <v>horornis-diphone-twitter1</v>
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" ref="E11:E18" si="0">LEFT(D11,LEN(D11)-4)</f>
-        <v>corvus-corone-cry1</v>
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>chicken-cry1</v>
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>cuculus-canorus-cry1</v>
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>elephant1</v>
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>catvoice</v>
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>鳥・フクロウ02</v>
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>鳥・トンビ05</v>
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>鳥・タカ03</v>
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/develop/unity/prj/AuditionMemory/RawData/Table/sound.xlsx
+++ b/develop/unity/prj/AuditionMemory/RawData/Table/sound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\AuditionMemory\RawData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36184A68-25EF-4EE5-ADDB-230A1FCBEF4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8BDCE-F0D8-42ED-82F5-8684D4DBA4B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="480" windowWidth="22104" windowHeight="11952" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
+    <workbookView xWindow="936" yWindow="1008" windowWidth="22104" windowHeight="11952" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>holstein-cow-mooing-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -723,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -736,16 +748,17 @@
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" customWidth="1"/>
+    <col min="7" max="7" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -761,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -769,15 +782,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -791,10 +807,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -804,8 +823,11 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -818,11 +840,14 @@
       <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -835,11 +860,14 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -852,11 +880,14 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -869,11 +900,14 @@
       <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -886,11 +920,14 @@
       <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -903,11 +940,14 @@
       <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -920,11 +960,14 @@
       <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -937,11 +980,14 @@
       <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -954,11 +1000,14 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -971,11 +1020,14 @@
       <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -988,11 +1040,14 @@
       <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1005,7 +1060,10 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>38</v>
       </c>
     </row>

--- a/develop/unity/prj/AuditionMemory/RawData/Table/sound.xlsx
+++ b/develop/unity/prj/AuditionMemory/RawData/Table/sound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\AuditionMemory\RawData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8BDCE-F0D8-42ED-82F5-8684D4DBA4B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7912B0E6-E753-4491-8295-9C6E6EFB75CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="1008" windowWidth="22104" windowHeight="11952" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
+    <workbookView xWindow="624" yWindow="420" windowWidth="22104" windowHeight="11952" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -371,6 +371,286 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼよーん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boyon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビシッ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feed1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にゅ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nyu2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぽいんちょ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>touch1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぷよん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>puyon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くすぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tickle1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machdash1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューン！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デデン！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>costume-drama1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時代劇</t>
+    <rPh sb="0" eb="3">
+      <t>ジダイゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>correct1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>incorrect1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正解</t>
+    <rPh sb="0" eb="3">
+      <t>フセイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピコッ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accent13-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OtoLogic（クレジット必要）</t>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sound_0013</t>
+  </si>
+  <si>
+    <t>sound_0014</t>
+  </si>
+  <si>
+    <t>sound_0015</t>
+  </si>
+  <si>
+    <t>sound_0016</t>
+  </si>
+  <si>
+    <t>sound_0017</t>
+  </si>
+  <si>
+    <t>sound_0018</t>
+  </si>
+  <si>
+    <t>sound_0019</t>
+  </si>
+  <si>
+    <t>sound_0020</t>
+  </si>
+  <si>
+    <t>sound_0021</t>
+  </si>
+  <si>
+    <t>sound_0022</t>
+  </si>
+  <si>
+    <t>sound_0023</t>
+  </si>
+  <si>
+    <t>sound_0024</t>
+  </si>
+  <si>
+    <t>boyon1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>puyon1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar01</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar03</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar04</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar05</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar06</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar07</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar08</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar09</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar10</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar11</t>
+  </si>
+  <si>
+    <t>se_maoudamashii_instruments_guitar12</t>
+  </si>
+  <si>
+    <t>ギター1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギター2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギター3</t>
+  </si>
+  <si>
+    <t>ギター4</t>
+  </si>
+  <si>
+    <t>ギター5</t>
+  </si>
+  <si>
+    <t>ギター6</t>
+  </si>
+  <si>
+    <t>ギター7</t>
+  </si>
+  <si>
+    <t>ギター8</t>
+  </si>
+  <si>
+    <t>ギター9</t>
+  </si>
+  <si>
+    <t>ギター10</t>
+  </si>
+  <si>
+    <t>ギター11</t>
+  </si>
+  <si>
+    <t>ギター12</t>
+  </si>
+  <si>
+    <t>sound_0025</t>
+  </si>
+  <si>
+    <t>sound_0026</t>
+  </si>
+  <si>
+    <t>sound_0027</t>
+  </si>
+  <si>
+    <t>sound_0028</t>
+  </si>
+  <si>
+    <t>sound_0029</t>
+  </si>
+  <si>
+    <t>sound_0030</t>
+  </si>
+  <si>
+    <t>sound_0031</t>
+  </si>
+  <si>
+    <t>sound_0032</t>
+  </si>
+  <si>
+    <t>sound_0033</t>
+  </si>
+  <si>
+    <t>sound_0034</t>
+  </si>
+  <si>
+    <t>sound_0035</t>
+  </si>
+  <si>
+    <t>sound_0036</t>
+  </si>
+  <si>
+    <t>魔王魂（クレジット必要）</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -735,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -746,8 +1026,7 @@
     <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.19921875" customWidth="1"/>
     <col min="7" max="7" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
@@ -1067,6 +1346,486 @@
         <v>38</v>
       </c>
     </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
